--- a/medicine/Psychotrope/Romorantin_(cépage)/Romorantin_(cépage).xlsx
+++ b/medicine/Psychotrope/Romorantin_(cépage)/Romorantin_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Romorantin_(c%C3%A9page)</t>
+          <t>Romorantin_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le romorantin est un cépage blanc peu cultivé et principalement utilisé pour les vins de l’AOC Cour-Cheverny.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Romorantin_(c%C3%A9page)</t>
+          <t>Romorantin_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Ier possédait une résidence à Romorantin. En 1518, il fit venir 80 000 plants en provenance de Bourgogne, que la légende désigne comme étant de ce cépage mais qui était plus vraisemblablement du pinot noir[1].
-En 1999, l'analyse génétique de 322 échantillons de vignes menée par des chercheurs de l'Université de Californie à Davis conclut que 16 cépages dont le romorantin sont issus de croisements entre le gouais blanc et le pinot[2].
-En France, il est classé et recommandé dans toute la vallée de la Loire, mais en réalité, il n'est cultivé que sur 60 hectares en Loir-et-Cher où il fait partie de l'encépagement de l'AOC Cour-Cheverny[3],[2]. Il n'est présent nulle part ailleurs de façon significative.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Ier possédait une résidence à Romorantin. En 1518, il fit venir 80 000 plants en provenance de Bourgogne, que la légende désigne comme étant de ce cépage mais qui était plus vraisemblablement du pinot noir.
+En 1999, l'analyse génétique de 322 échantillons de vignes menée par des chercheurs de l'Université de Californie à Davis conclut que 16 cépages dont le romorantin sont issus de croisements entre le gouais blanc et le pinot.
+En France, il est classé et recommandé dans toute la vallée de la Loire, mais en réalité, il n'est cultivé que sur 60 hectares en Loir-et-Cher où il fait partie de l'encépagement de l'AOC Cour-Cheverny,. Il n'est présent nulle part ailleurs de façon significative.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Romorantin_(c%C3%A9page)</t>
+          <t>Romorantin_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le romorantin entre dans la composition des vins blancs IGP Atlantique, Périgord et Périgord vin de Domme en tant que cépage principal.
-Lorsqu'il est cultivé dans d'autres vignobles, il intègre la composition de plusieurs vins IGP du Rhône, du Beaujolais, du Sud-Ouest et de Provence[2].
+Lorsqu'il est cultivé dans d'autres vignobles, il intègre la composition de plusieurs vins IGP du Rhône, du Beaujolais, du Sud-Ouest et de Provence.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Romorantin_(c%C3%A9page)</t>
+          <t>Romorantin_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque : 0 - 3 jours après le chasselas.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Romorantin_(c%C3%A9page)</t>
+          <t>Romorantin_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies du romorantin sont petites à moyennes. La grappe est cylindrique et ailée. Le cépage est de bonne vigueur mais la production est irrégulière. Il est assez sensible à la pourriture grise.
-Il peut donner un vin blanc très rond, pouvant souvent être récolté tardivement, avec des arômes de fleurs blanches, de miel, et parfois de pruneaux[2].
+Il peut donner un vin blanc très rond, pouvant souvent être récolté tardivement, avec des arômes de fleurs blanches, de miel, et parfois de pruneaux.
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Romorantin_(c%C3%A9page)</t>
+          <t>Romorantin_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,9 +660,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le romorantin est connu sous les noms de ramorantin, bury, dameri, daneri (dannery), framboise, gros blanc de Ville-Franche, gros plant, lyonnaise blanche, maclon, petit dannezy, petit maconnais, plant de Brézé et raisin de Grave[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le romorantin est connu sous les noms de ramorantin, bury, dameri, daneri (dannery), framboise, gros blanc de Ville-Franche, gros plant, lyonnaise blanche, maclon, petit dannezy, petit maconnais, plant de Brézé et raisin de Grave.
 </t>
         </is>
       </c>
